--- a/biology/Zoologie/Rémy_Chauvin/Rémy_Chauvin.xlsx
+++ b/biology/Zoologie/Rémy_Chauvin/Rémy_Chauvin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9my_Chauvin</t>
+          <t>Rémy_Chauvin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rémy Chauvin est un scientifique français, né le 10 octobre 1913 à Toulon (Var)[1] et mort le 8 décembre 2009 à l'hôpital de Sainte-Marie-aux-Mines (Haut-Rhin). Il défend les droits des animaux et pour s'intéresse au paranormal, la vie après la mort, la voyance, les surdoués et l'ufologie.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rémy Chauvin est un scientifique français, né le 10 octobre 1913 à Toulon (Var) et mort le 8 décembre 2009 à l'hôpital de Sainte-Marie-aux-Mines (Haut-Rhin). Il défend les droits des animaux et pour s'intéresse au paranormal, la vie après la mort, la voyance, les surdoués et l'ufologie.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9my_Chauvin</t>
+          <t>Rémy_Chauvin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,15 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enfance et formation
-Fils de Marie-Louise Taupin, biologiste et d'Alphonse Joseph Chauvin, Rémy-André-Joseph Chauvin fait ses études secondaires au collège de Laval région d'origine de ses parents[1].
-Carrière
-En 1961, il est directeur de recherches à l'Institut nationale de Recherche agronomiques[2].
-Il fait partie, avec Jacques Vallée et Olivier Costa de Beauregard, du « Collège invisible » qui se propose d'étudier certains aspects « maudits » ou méprisés des sciences[3].
-Invité de l'émission Apostrophes en septembre 1975 pour y présenter Les Surdoués, il se trouve sur le même plateau que Gabriel Matzneff, auteur encore peu connu qui avait publié quelques mois auparavant Les Moins de seize ans. Rémy Chauvin dit avoir été « gêné » par le livre de Matzneff, et évoque le traumatisme que subissent les petits garçons avec lesquels Matzneff a des relations sexuelles. Lors de cette émission de 1975, il déclare, à propos de chacun de ces garçons : « Vous l'avez peut-être traumatisé pour la vie. »
-À partir des années 1980, il commence à s'intéresser à la parapsychologie et à l'ufologie.
-Auteur du livre Les surdoués, il décrit les caractéristiques d'un enfant surdoué et sa vie[4].
-Face aux critiques, Rémy Chauvin déclare : « Nos scientifiques traitent ces sujets avec mépris. Or, avoir peur des faits ne les supprime pas. Personnellement, j'accepte d'énoncer les hypothèses les plus folles, à condition d'être excessivement rigoureux au moment de les tester[5]. »
+          <t>Enfance et formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils de Marie-Louise Taupin, biologiste et d'Alphonse Joseph Chauvin, Rémy-André-Joseph Chauvin fait ses études secondaires au collège de Laval région d'origine de ses parents.
 </t>
         </is>
       </c>
@@ -532,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9my_Chauvin</t>
+          <t>Rémy_Chauvin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,14 +557,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Distinctions</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Prix Jean Dollfus de la Société entomologique de France en 1943.
-Il a été membre d’honneur de l’Institut métapsychique international (IMI)[6].
-Il a été nommé membre d’honneur de l’association Plasticités Sciences Arts (à l'époque Groupe des Plasticiens) en 1995[7].</t>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1961, il est directeur de recherches à l'Institut nationale de Recherche agronomiques.
+Il fait partie, avec Jacques Vallée et Olivier Costa de Beauregard, du « Collège invisible » qui se propose d'étudier certains aspects « maudits » ou méprisés des sciences.
+Invité de l'émission Apostrophes en septembre 1975 pour y présenter Les Surdoués, il se trouve sur le même plateau que Gabriel Matzneff, auteur encore peu connu qui avait publié quelques mois auparavant Les Moins de seize ans. Rémy Chauvin dit avoir été « gêné » par le livre de Matzneff, et évoque le traumatisme que subissent les petits garçons avec lesquels Matzneff a des relations sexuelles. Lors de cette émission de 1975, il déclare, à propos de chacun de ces garçons : « Vous l'avez peut-être traumatisé pour la vie. »
+À partir des années 1980, il commence à s'intéresser à la parapsychologie et à l'ufologie.
+Auteur du livre Les surdoués, il décrit les caractéristiques d'un enfant surdoué et sa vie.
+Face aux critiques, Rémy Chauvin déclare : « Nos scientifiques traitent ces sujets avec mépris. Or, avoir peur des faits ne les supprime pas. Personnellement, j'accepte d'énoncer les hypothèses les plus folles, à condition d'être excessivement rigoureux au moment de les tester. »
+</t>
         </is>
       </c>
     </row>
@@ -564,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R%C3%A9my_Chauvin</t>
+          <t>Rémy_Chauvin</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,13 +599,52 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Prix Jean Dollfus de la Société entomologique de France en 1943.
+Il a été membre d’honneur de l’Institut métapsychique international (IMI).
+Il a été nommé membre d’honneur de l’association Plasticités Sciences Arts (à l'époque Groupe des Plasticiens) en 1995.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rémy_Chauvin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9my_Chauvin</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Livres publiés
-L'univers animal, Kister
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Livres publiés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L'univers animal, Kister
 La Grange Batelière, coll. « La vie et l'homme - encyclopédie des sciences biologiques », 1961
 La Vie de l'insecte et sa physiologie, éd. Lechevalier, 1941, rééd. 1983
 Ce qu'il faut savoir sur la vie de l'insecte, physiologie et biologie, éd. Lechevalier, 1943
@@ -644,9 +703,43 @@
 Le Paranormal au troisième millénaire, éd. J.M. Laffont - LPM, 2001
 Le Bal des abeilles, tome 1, éd. du Goral, 2001 (bande dessinée, scénario RC, dessins de Patrice Serres)
 Le Retour des magiciens :  Le Cri d'alarme d'un scientifique, éd. JMG, 2002
-Le Bal des abeilles, tome 2 : « Le parfum des fleurs de café », éd. du Goral, 2002 (trilogie prévue)
-Préfaces
-Charles Mayer, Ma vie d'abeille, éd. Les Productions de Paris, 1958
+Le Bal des abeilles, tome 2 : « Le parfum des fleurs de café », éd. du Goral, 2002 (trilogie prévue)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Rémy_Chauvin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9my_Chauvin</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Préfaces</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Charles Mayer, Ma vie d'abeille, éd. Les Productions de Paris, 1958
 Alain Caillas, Le Pollen : Sa récolte et ses usages, Orléans, chez l'Auteur, 1959
 Jacques Graven, L'Homme et l'Animal, éd. Planète, coll. « Encyclopédie Planète », 1966
 François Meyer, La Surchauffe de la croissance, éd. Fayard, 1974
